--- a/data/trans_dic/P55_9-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_9-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de una lavadora</t>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,28%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99,2%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>99,12%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98,61%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,89; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,37; 100,0</t>
+          <t>92,61; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>98,52; 99,83</t>
+          <t>95,07; 99,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>95,82; 100,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97,62; 99,78</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96,25; 99,67</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>95,42%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92,68%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>96,27%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,03; 100,0</t>
+          <t>94,61; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,45; 98,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,12; 99,2</t>
+          <t>89,03; 98,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72,72; 99,11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93,36; 99,01</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>87,87; 99,55</t>
         </is>
       </c>
     </row>
@@ -661,12 +767,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>97,75%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96,02%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98,08%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,42; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,28; 100,0</t>
+          <t>88,42; 100,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>80,88; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>93,53; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>97,07%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>96,34%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,644 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>97,84; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,47; 99,09</t>
+          <t>96,68; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,43</t>
+          <t>94,24; 98,75</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>87,08; 99,04</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96,67; 99,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 99,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,45%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>378625</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>500426</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>392852</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>555850</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>771477</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1056275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>473140; 510872</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>380000; 398041</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>536871; 560308</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>759791; 776667</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1030987; 1067679</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>311748</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>412326</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>313039</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>396350</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>624787</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>808677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>298001; 314983</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>292065; 323704</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>310994; 423860</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>600375; 636701</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>738117; 836228</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>85591</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>119398</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>78823</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106923</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>164414</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>226321</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>71303; 80641</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90067; 111352</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>155479; 166232</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>208962; 230750</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>775964</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1032150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>784714</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1059123</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1560678</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2091273</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>762334; 779199</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1007994; 1042596</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>761869; 798348</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>957250; 1088718</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1534804; 1575284</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2000775; 2125149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>